--- a/SISPR/wwwroot/Files/Униф. УП 24 с ДО 8ч.xlsx
+++ b/SISPR/wwwroot/Files/Униф. УП 24 с ДО 8ч.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chikurova_z_a\Desktop\типовые планы 2020\типовые планы 2021\типовые планы 15.01.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hozja_d_e\Desktop\2021 Типовые планы\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60AE834-F4BC-4358-AE8F-682A1C7D13A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,9 +94,6 @@
     <t>Режим занятий</t>
   </si>
   <si>
-    <t>8 часов (по расписанию)</t>
-  </si>
-  <si>
     <t>Вид учебной работы</t>
   </si>
   <si>
@@ -164,12 +162,15 @@
   </si>
   <si>
     <t>Проверка входной и/или выходной диагностики уровня предметной готовности слушателей, подготовка аналитической справки</t>
+  </si>
+  <si>
+    <t>9 часов (по расписанию)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +641,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -758,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -767,30 +768,30 @@
     </row>
     <row r="14" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -801,7 +802,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="12">
         <v>8</v>
@@ -816,7 +817,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="14">
         <f>SUM(B16:B16)</f>
@@ -830,7 +831,7 @@
     </row>
     <row r="18" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="12">
         <v>0.16</v>
@@ -850,7 +851,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="14">
         <f>SUM(B17:B18)</f>
@@ -866,7 +867,7 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -877,7 +878,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="14">
         <v>4</v>
@@ -894,7 +895,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="12">
         <v>12</v>
@@ -911,7 +912,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="14">
         <f>SUM(B21:B22)</f>
@@ -928,7 +929,7 @@
     </row>
     <row r="24" spans="1:7" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="12">
         <v>0.25</v>
@@ -947,7 +948,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="14">
         <f>B23+B24</f>
@@ -964,7 +965,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -975,7 +976,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="12">
         <v>0.2</v>
@@ -995,7 +996,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="12">
         <v>0.12</v>
@@ -1015,7 +1016,7 @@
     </row>
     <row r="29" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="12">
         <v>0.25</v>
@@ -1035,7 +1036,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="14">
         <f>SUM(B27:B29)</f>
@@ -1052,7 +1053,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="22">
         <f>B17+B25+B18+B30</f>
@@ -1069,10 +1070,10 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>29</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
